--- a/gaballada_DB.xlsx
+++ b/gaballada_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maisy\Desktop\Mini\gaballada_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03EFC9A-F718-40FF-BD02-96DF0DF49AED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9F90EF-2419-48A6-8E56-B6DC0D332F33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23712" windowHeight="9792" tabRatio="848" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23712" windowHeight="9792" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회원 정보 테이블" sheetId="2" r:id="rId1"/>
@@ -1572,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2313,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
